--- a/vzor.xlsx
+++ b/vzor.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookViews>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>ÚČET</t>
   </si>
@@ -34,7 +34,7 @@
     <t>POZNÁMKA</t>
   </si>
   <si>
-    <t>247364827/0600</t>
+    <t>1011-17926811/0710</t>
   </si>
   <si>
     <t>Tohle je zpráva pro příjemce</t>
@@ -43,54 +43,50 @@
     <t>Tohle je poznámka platby pouze pro mě</t>
   </si>
   <si>
-    <t>1984372621/3030</t>
+    <t>2700/2700</t>
   </si>
   <si>
     <t>Povinné pole je jenom číslo účtu a částka</t>
   </si>
   <si>
-    <t>763254789/0300</t>
+    <t>20001-38138021/0100</t>
   </si>
   <si>
     <t>Jinak vše může být prázdné</t>
   </si>
   <si>
-    <t>102-1234567890/0100</t>
+    <t>3033/2700</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.00[$ Kč]"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="59" formatCode="#,##0.00[$Kč-405]"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <color theme="1"/>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <color theme="1"/>
+      <b val="1"/>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -98,57 +94,144 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
-  </cellStyleXfs>
-  <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  </cellStyleXfs>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
+    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffaaaaaa"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>711366</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>71500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>15073</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19304</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Text"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4483266" y="4005325"/>
+          <a:ext cx="268908" cy="147830"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -162,10 +245,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4285F4"/>
@@ -186,25 +269,25 @@
         <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="FF00FF"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Sheets">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -213,76 +296,66 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
+                <a:tint val="100000"/>
                 <a:shade val="100000"/>
+                <a:satMod val="129999"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="104999"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -293,93 +366,937 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Arial"/>
+            <a:ea typeface="Arial"/>
+            <a:cs typeface="Arial"/>
+            <a:sym typeface="Arial"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:lnDef>
+    <a:txDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Arial"/>
+            <a:ea typeface="Arial"/>
+            <a:cs typeface="Arial"/>
+            <a:sym typeface="Arial"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:txDef>
+  </a:objectDefaults>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="24.13"/>
-    <col customWidth="1" min="6" max="6" width="38.13"/>
-    <col customWidth="1" min="7" max="7" width="34.88"/>
+    <col min="1" max="1" width="24.1719" style="1" customWidth="1"/>
+    <col min="2" max="5" width="12.6719" style="1" customWidth="1"/>
+    <col min="6" max="6" width="38.1719" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34.8516" style="1" customWidth="1"/>
+    <col min="8" max="26" width="12.6719" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="12.6719" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="13.65" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s" s="3">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s" s="3">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s" s="3">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" t="s" s="3">
         <v>6</v>
       </c>
       <c r="H1" s="4"/>
@@ -402,98 +1319,300 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="13.65" customHeight="1">
+      <c r="A2" t="s" s="5">
         <v>7</v>
       </c>
       <c r="B2" s="6">
         <v>1234.56</v>
       </c>
-      <c r="C2" s="7">
-        <v>12345.0</v>
-      </c>
-      <c r="E2" s="8">
-        <v>111.0</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="C2" s="6">
+        <v>12345</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="6">
+        <v>111</v>
+      </c>
+      <c r="F2" t="s" s="8">
         <v>8</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" t="s" s="8">
         <v>9</v>
       </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
     </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
+    <row r="3" ht="13.65" customHeight="1">
+      <c r="A3" t="s" s="9">
         <v>10</v>
       </c>
       <c r="B3" s="6">
         <v>987.65</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="8">
-        <v>558.0</v>
-      </c>
-      <c r="E3" s="8">
-        <v>111.0</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="6">
+        <v>558</v>
+      </c>
+      <c r="E3" s="6">
+        <v>111</v>
+      </c>
+      <c r="F3" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
     </row>
-    <row r="4">
-      <c r="A4" s="5" t="s">
+    <row r="4" ht="13.65" customHeight="1">
+      <c r="A4" t="s" s="5">
         <v>12</v>
       </c>
       <c r="B4" s="6">
         <v>456.78</v>
       </c>
-      <c r="C4" s="7">
-        <v>234.0</v>
-      </c>
-      <c r="D4" s="8">
-        <v>558.0</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="8" t="s">
+      <c r="C4" s="6">
+        <v>234</v>
+      </c>
+      <c r="D4" s="6">
+        <v>558</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" t="s" s="8">
         <v>13</v>
       </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
     </row>
-    <row r="5">
-      <c r="A5" s="5" t="s">
+    <row r="5" ht="13.65" customHeight="1">
+      <c r="A5" t="s" s="5">
         <v>14</v>
       </c>
       <c r="B5" s="6">
         <v>543.21</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
     </row>
-    <row r="6">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="10"/>
+    <row r="6" ht="13.65" customHeight="1">
+      <c r="A6" s="11"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
     </row>
-    <row r="7">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="10"/>
+    <row r="7" ht="13.65" customHeight="1">
+      <c r="A7" s="11"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
     </row>
-    <row r="8">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="10"/>
+    <row r="8" ht="13.65" customHeight="1">
+      <c r="A8" s="11"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
     </row>
-    <row r="9">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="10"/>
+    <row r="9" ht="13.65" customHeight="1">
+      <c r="A9" s="11"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+    </row>
+    <row r="10" ht="13.65" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
     </row>
   </sheetData>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>